--- a/Magazin/Templates/Шаблон.xlsx
+++ b/Magazin/Templates/Шаблон.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Продукты" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Категории" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Категории">'Лист2'!$A:$A</definedName>
+    <definedName name="Категории">'Категории'!$A:$A</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>ProductName</t>
   </si>
@@ -40,10 +40,10 @@
     <t>IsActive</t>
   </si>
   <si>
-    <t>Чикен Дунари</t>
-  </si>
-  <si>
-    <t>Сочная</t>
+    <t>Чикен Тандури</t>
+  </si>
+  <si>
+    <t>Мощная</t>
   </si>
   <si>
     <t>РУБ</t>
@@ -52,12 +52,6 @@
     <t>Шаурма</t>
   </si>
   <si>
-    <t>Чикен Тандури</t>
-  </si>
-  <si>
-    <t>Мощная</t>
-  </si>
-  <si>
     <t>Кока кола 0,5</t>
   </si>
   <si>
@@ -67,22 +61,10 @@
     <t>Напитки</t>
   </si>
   <si>
-    <t>Кока кола 0,33</t>
-  </si>
-  <si>
-    <t>Охлаждающая</t>
-  </si>
-  <si>
     <t>Мясо в лаваше</t>
   </si>
   <si>
-    <t>Жидкость в емкости</t>
-  </si>
-  <si>
-    <t>Без категории</t>
-  </si>
-  <si>
-    <t>Без коментариев</t>
+    <t>Напитки в емкоси</t>
   </si>
 </sst>
 </file>
@@ -369,35 +351,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>999999.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1000000.0</v>
@@ -417,10 +376,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>100.0</v>
@@ -432,32 +391,9 @@
         <v>999999.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>999999.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -492,23 +428,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
